--- a/biology/Microbiologie/Bouillon_nitrité/Bouillon_nitrité.xlsx
+++ b/biology/Microbiologie/Bouillon_nitrité/Bouillon_nitrité.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bouillon_nitrit%C3%A9</t>
+          <t>Bouillon_nitrité</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En analyse microbiologique, le bouillon nitrité permet la détermination du type respiratoire des micro-organismes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bouillon_nitrit%C3%A9</t>
+          <t>Bouillon_nitrité</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>infusion cœur-cervelle : 25,0 g
 nitrite de sodium : 10,0 g
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bouillon_nitrit%C3%A9</t>
+          <t>Bouillon_nitrité</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">35 g par litre. Autoclavage classique. La solution de nitrites stérilisée par filtration peut aussi être ajoutée juste avant emploi.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bouillon_nitrit%C3%A9</t>
+          <t>Bouillon_nitrité</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Lecture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir vérifié la présence de culture, ajouter les réactifs Nitrite 1 et 2. Une coloration rouge signe la présence de nitrites : bactérie nitrite réductase -. L'absence de coloration signe la réduction par la bactérie des nitrites en azote. L'addition d'une cloche ou de gélose permet la mise en évidence du gaz.
  Portail de la microbiologie                     </t>
